--- a/Data/Blogs/Blogs.xlsx
+++ b/Data/Blogs/Blogs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\SPSSInc\MyStats\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\SPSSInc\MyStats\data\Blogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="311">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1582,6 +1583,75 @@
   </si>
   <si>
     <t xml:space="preserve">陈煜 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 6:47pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP三日 单子毓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">李凯文 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光阴流逝，日复一日，年复一年。转瞬间，我们所参与的跨学科集成设计挑战这个引导课已经来到了它的第三日。已经过去的两天，是忙碌的两天。在这两天之中，我们齐心协力，共同奋斗，在宪章制作、网页制作与微电影之拍摄之上都取得了不小的进步。
+今天的空气并不似昨日那么清新，但想到跨学科集成设计挑战的进度已然过半，这令我还是感到有点成就感。早晨，吃过早饭，向课堂处进发。匆匆忙忙赶到课堂，打开电脑，结果发现居然网费欠费了！幸好我的手机还有流量，于是我打开了个人热点，成功地使电脑得以勉勉强强地登上了网。这也许也算是一种随机应变能力的体现吧！
+之后，四组按要求并为一组。经过反反复复的思考过后，我决定，要加入微电影组。我们在汇报可参与的工作之时，我表明，我能够进行的工作包括编剧和跑龙套。之后，我们采用罗伯特议事规则与头脑风暴的模式进行了会议，在与宪章小组的密切交流之后，我们决定，以一个人通过在跨学科系统集成设计挑战之中设计宪章等工作之中所获得的种种能力的帮助之下，最终取得了成功的事件，来作为我们的微电影的主要内容。
+文中的主人公在开头，表明他的声纹识别机器人倍受欢迎，之后，在翻阅文件之时一不小心发现了当年在跨学科系统集成设计挑战之中他与伙伴们一同设计的宪章，也是对他产生过巨大影响的宪章。之后，就进入了他当年怀着憧憬、战战兢兢走进跨学科系统集成设计挑战的课堂。从沉默到积极参与，从不懂到精通，尤其是他最终还成为了整个团队的代表。之后，在他们团队所设计的宪章的指导之下，他最终在自己的领域之中取得了成功！
+这就是我们今天主要涉及的微电影。希望在明天的发布会之中，我们的微电影能够取得很好的效果！Tomorrow，让我们拭目以待！
+注释：本文作者为单子毓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 6:54pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">周子淞 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天是跨学科综合集成挑战的第三天，八组并为一组，我进入了网页编辑部分。第三天，这个活动快要结束了，这时感觉还是蛮轻松的，虽然也有拼命赶deadline的紧迫的时候，但是总体仍就很轻松，即使有苦打代码的时候，也是信心满满，斗志昂扬，自然也不觉得累了。第三天，我对这个活动有了更加深入的认识，整个活动“我的时空我做主”，本质为开源、分享、平等，我所做的部分正是其升华，我们在这三天之中收获了如此之多的东西，完成了重重挑战，也许这对我们来说过去的事情也就过去了，只不过是一段宝贵的记忆，但是，因为我们要开源，所以我们要将这种历程分享给许许多多烦恼于此事的人，让他们能够在我们的基础上进一步拓展、完善、最终成功，这就是分享的开源，这就是我们做网页的意义。其实时至今日，我才真正懂得了我们这个活动：“我的时空我做主”——《创客空间宪章》的真正意义，但是如此大的收获即使在第三天到来也并不算晚。在今晚，我们准备推翻以前的错误，走上一条正确的道路，我信心满满，希望能在今天晚上做完一个成功的网页，以完成最后的报告，同时这也是对三至四天以来自己工作的一个总结，一个升华，更是对千千万万具有相同经历之人的贡献与分享，所以，我真心希望我们的网页能做到更好，更具有吸引力与启发性。今天已是一月二十八号了，校内听涛餐厅都已结束了营业，我们等待了这么久，付出了这么多汗水与心血，只为了一次最完美的绽放。让这几天付出的汗水都放出光芒吧，让我们思考出来的成果公布于世吧！就在明天，希望明天更加美好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:00pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">倪锐晨 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天是XLP第三天，我们首先进行了成果展示。顾老师对我们的项目点评是：项目切合实际生活，但是发展过程过于突兀，显得有些夸张。同时我们在去中心化的方面的工作还是有所欠缺。然后进行了四并一的小组合并。合并后原来的各组的项目经理组成了筹备委员会，主要处理各组间的信息传递。之后，我们开始了欢脱的分组。由于微电影的强大吸引力，我们小组瞬间招募了一大堆人力。这样使得我们后续分配后的任务便于处理。在组长王骞忙于组间信息的传递时，由于我是后期技术支持，所以在前期果断挑起了组内任务分配以及制片总监的任务。总的来说，我觉得我十分出色地完成了这一任务。下午，我们小组大部分人员在我和导演李奇钟的带领下奔赴各个取景点进行忙碌的视频拍摄。而王骞和刘佳慧则留在工业基础中心进行XLP的展示。总的说来，与前两天相比，今天工作虽然繁忙，但是却是我这两天来最为快乐的一天。因为，这是我自己喜欢的方面，并且在前两天的磨练后，整个活动的思路越来越明晰，并且技术也越来越成熟。所以我们在处理任务的时候也变得越来越灵活。
+明天就是XLP的最后一天了，虽然在第一天时感到十分繁忙且迷茫。但是从今天开始，越来越觉得XLP的意义重大和极限学习的概念。
+不管怎么说，明天是XLP的最后一天。我们应该以更加饱满的状态迎接最后的且最艰巨但也最“轻松”的任务。
+最后，顾老师对我们的项目做出了点评。他认为应该是我们来推动XLP这个项目，使得有更多的人了解，更多人参与，更多人推广他们自己的产品，更多的人获得在这个信息时代更好地生活的能力。
+如果能够每年都参加一次XLP，我们一定能够学到更多的东西。真希望明年能够再有机会学习。不过换个角度，知识是无法学完的，但是学习的技法却是基本相同的。通过XLP，我们更多获得的应当是这方面的技能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2018,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3270,6 +3340,57 @@
         <v>293</v>
       </c>
     </row>
+    <row r="75" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>308</v>
+      </c>
+      <c r="B77" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
     <row r="82" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C82" s="1"/>
     </row>
@@ -3278,4 +3399,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Blogs/Blogs.xlsx
+++ b/Data/Blogs/Blogs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="437">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1654,12 +1654,653 @@
 如果能够每年都参加一次XLP，我们一定能够学到更多的东西。真希望明年能够再有机会学习。不过换个角度，知识是无法学完的，但是学习的技法却是基本相同的。通过XLP，我们更多获得的应当是这方面的技能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">门天立 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:02pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天是XLP的第三天，我醒来时看着空荡荡的宿舍，想起舍友们已经回家，更有杨姓者发来诸如“睡到日照三杆”之类的消息。我无奈地背起书包，困困地骑向基础工业中心......
+上午的事情依然照旧，大家先分别展示自己的作品，我们组把昨天加班加点做好的视频放了出来，赢得了一些笑声和掌声，不过因为一些原因而出现了一些BUG，后来又陆续展示了我们组的宪章修改部分等，得到了老师的认可和鼓励，但是他对我们的可操作性提出了质疑，并且提出要去掉一些虚假的东西，多添加真的素材（如这几天里的录像）。
+之后便是四并一分组，我们组成了一个大团体，其中分为宪章组、微电影组、宪章实物组、网页组、筹备组。我出于兴趣报了微电影组，我们组分为导演、剧本组、演员、摄影道具组，我加入了剧本组，在与宪章组协商、组内讨论之后确定了主题：以回忆式为主要形式，具体内容为小A在完成某项目后回忆XLP中经历，再结合具体事例来表现XLP对其产生的影响。在做剧本时，我们也分为了三个组，分别负责三个部分。分组使得我们各尽其职，大大提高效率，值得推广。
+由于之前大家都没有太多经验，所以做的时候都很小心，但是还是会出现一些问题，在出现问题的时候，大家都很友好地互相交流，所以最后携手完成了微电影剧本的撰写。
+下午时，李强和卢晟昊由于昨天的提名，需要在前面领操，不过在大家的一致呼声下，换了其他的舞，但是因为跳舞的难度过高而陷于小尴尬。后来机智的李强同学便主动“献声”，用一曲柔肠百转的“江南”征服了在场的观众们。之后便是我们微电影组去各种地方取景，在大家的频频遇挫后终于成功地拍摄了几段精彩的视频。
+       离XLP的最后期限已经不远了，大家都开始加足马力，相信大家一定会出色地完成明天的发布会！
+门天立
+2015、1、28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP 第三天日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY 3 陈煜（因特殊原因无法自己提交）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:12pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志DAY3
+今日是倒数第二天，可喜可贺。十分开心。不是因为，这课太糟糕。主要是因为，的确很疲劳。为了准备今天早上的这一次展示，我不得不选择熬夜做视频。不多说了，今天我只睡了两个小时。这整天我都属于放空的状态。而且，我今天有一个重要的收获。我明白了个道理：别瞎逞强。我一直想装作很精神，想尽量付出努力帮助大家，不过从今天上午的情况来说。我只帮了倒忙。今天上午，我觉的我说话一句没过脑子，而且没有意义，再加上根本脑子已经跟不上同组队员的节奏，所以一点没有帮上忙。于是我中午做出了重要的决定。我决定停止工作两小时，换为补觉时间。就算有再多人需要我帮忙也不能阻止我，就算再多事需要我做也不能阻止我。于是，终于，下午我找回了状态，加入了微电影组的拍摄，担任主角。不得不说，拍摄条件太差了，拍摄水平也太差了，再加上主角也差，简直是快要不忍直视了。不过看到我们拍出的成果，还是十分感到欣慰的，就像一个母亲不管儿子有多丑，也还是会如此无偿的爱着儿子。（也似乎突然明白了，我妈妈如此我的原因。我之前一直困惑我妈妈为甚么不因为我长得丑去把我卖了换吃的。）接下来就是剪辑工作。如果不出意外的话，我又要熬夜了。所以，我现在心情很差。包括600字限制，这也是我心情很差的原因。明天最终的展示我一点也不紧张，因为我不是主持人。刘佳慧是主持人，所以我猜她会紧张，不过相信她一定会是没有问题的！实在没什么可说的了，就分享一句名言：世界可以毁灭，但东来顺应该永远保留下来。——毛泽东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP_DAY3 ——拨云雾而睹青天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知不觉xlp项目已经过去了三天，明天下午就要结束了，这三天的生活，充满回忆。从第一天被任务push着勉强跟上节奏，任务草草完成，没有深入思考，对挑战方充满怨言，对管理者抵触，对快消学习深感焦虑，对接下来的学习感到绝望。到第二天开始注意到身边美好的人和事，发现每个人的闪光点，惊叹清华孩纸们的各项技能，创造力、想象力、执行力、领导力、表演天赋、理财能力，都有人可以发挥到极致，让人自叹不如，同时欣喜万分，好像又打开了一个新的世界的大门，尽管已经在清华待了一年半，还是会时常发现身边卧虎藏龙。而第三天，则又是另一番境界了，反应迟钝的我终于开始注意到我们一直在做的项目本身了，在两天多的迷茫之后，终于开始主动思考，发现此次创客宪章项目的意义。
+在第二次合组后，我加入了网页组，虽然组里有技术大腿，但是做网页还是需要很多素材的，于是我就负责收集整理再编辑素材的过程，因为电脑硬盘容量不足，又没带移动硬盘，心塞的边拷边删，同时get做gif技能，剪视频技能等，这几天一直没有做固定的事情（除了会议记录和git push，因为要记录发言少分数低的苦逼事我就不说了TAT），什么都干过，虽然也不精通，但是体验也挺丰富的哈哈，get好多以前一直想学没有时间学的技能。
+网页组的工作也给了我一个全面分析这次创客项目的意义的机会。其实下午的那段时间，我们组一直把重点搞错了，只是一味等着别的组做好东西我们有了素材，利用各种高逼格技术完善后填充进去就好了，却没有注意我们的框架搭建存在严重问题。在听了项目汇报后，又和宪章组成员深入交流后，才恍然大悟我们做网页的意义，不仅是展示我们这四天的成果，做的花哨一点吸引浏览量，而且要利用已有项目成果的契机，搭建一个平台，真正的建立创客分享交流的开源式空间，只有不断地分享和下载才能维持网站的持续运行和不断壮大，我们的目光太短浅了。了解了这一切后，做网站的事情就变得格外明晰起来，而不仅仅关注表面工作，而是结合宪章修改网站。在此之后，我和思琪学弟头脑风暴出了网站初步框架，脑洞大开，灵感迸发，接下来就是实际工作了，希望效果满意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:17pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天真是大起大落的一天，但是当我写这篇日志的时候，我觉得很欣慰，似乎一些都没有白费。现在我身边宪章组的队友们正在和谐而努力地重新制作着修改着我们团队的结晶，我很荣幸为这个结晶贡献了自己的力量。
+我之所以选择了宪章组，只是为了实现一天前的愿望：那个将一个普适性的宪章，传递着创客精神的宪章，传递给全世界的人（理想主义？算是吧。）可惜我不能为此牺牲团队的利益，因为如果选择我的方案，小组的宪章就会推翻重构。很感谢我们组长周大桐，他支持我继续下去。可惜到最后，由于出现了很多问题（我的缘故），这个极好的思路没有继续下去。
+新的分组带来新的希望，虽然宪章组工作有苦又累不讨好，所以报名的人不到10个，但我还是来到了这里，因为我觉得宪章是这次任务的灵魂，我希望它能够做到最好。
+合并四组的宪章是最困难的，我们提出了三个方案，我的方案大家都很支持，但是问题一样：我们得推翻重来。还有一个方案，是以创客空间为单位的，也存在缺乏可复制性等问题。
+小组争论了很久直到中午，给出了一个维护了大多数人利益的方法（这里我理解了最好的方法不一定是最佳的方法这个道理）。我和郝玉坤在下午突然迸发灵感，想出了一套精妙的方案，就是你们每天即将看到的东西。仍记得那时的我兴奋地疾走，仿佛发现了创客的奥秘精髓，一切努力都在变得清晰，我们不怕难，是的，我们在离展示正好一天的时刻，重做了，但我知道，之前的一切努力，绝不是白费。
+我很感谢我的队友，也很感谢顾老师，我发现真真切切的，也许没有理解全部，但至少我们确实学到了很多东西。这不是三言两语能说尽的，就说到这里。
+明天加油！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:20pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周亦庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天XLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天XLP，由于昨天工作到了4点半，本来想通宵不睡觉的但是没有坚持住睡着了以至于早上7点45才醒过来。一整天的课程也都没有精神，在进行小组汇报和嘉宾讲座时倦意连连。之后完成了分组，我加入了微电影组，毕竟由于一系列的阴差阳错我在之前的组里负责的便是微电影的工作，所以这样的分组也是理所应当，我们几乎是立即进行了小组会议，采用了头脑风暴模式，我和陈煜被指定为主演。会议结束后剧本组开始进行编剧，导演们开始策划，项目经理着手处理了一系列的组内任务和小组任务，我和陈煜暂时没有具体工作，便抓紧时间休息。整个上午我完成的工作只是帮助协调组内成员完成了gitcafe的上传任务，存在感很低。
+下午剧本出炉，但是出现了严重的问题：在剧本中主演只有一个，其他的几乎全部是龙套，完全可以由剧组成员胜任，于是在确定了主演为陈煜了之后我再次处于工作真空期。我一开始协助剧组进行素材采集，剧情拍摄，并且帮助修改剧本，但是我感觉我在剧组里并不是必要的，于是我回到房间里继续学习绘声绘影，准备在之后协助微电影的后期处理。然后我向项目经理王骞报告了我所处的情况，他建议我去协助人少的网页组工作。网页组说需要gif动图，我又开始学习制作gif动图，做出了第一份样品了之后组内微电影的拍摄开始了，需要全体人员，我便跟随队伍去了，拖了下地板。在拍摄间隙我也完成了一些gif动图的制作，但是网页组修改了任务不再使用gif图了，so~，一天只跑了跑龙套，挺悲剧的。哈哈哈哈够600字了吧~
+一天比较不爽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:21pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孙敬源 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day Three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:25pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王骞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day Three 实际上今天的活动是与昨天的活动联系在一起的。为了做网页，自学了一会儿html和css，但看网页模板的源代码依然无能为力，用最底层的技术做简单的网页让人难以接受。不知道为什么DreamWeaver对我那么不友好，居然连将两张图片进行重叠都需要用div的概念。无论如何，熬夜到了4点终于有了结果，却没时间再参与视频的剪辑。熬夜导致自己一度产生了今天就混过去的想法。今早的展示不能说尽如人意，但确实是当时条件下比较好的结果了。依旧不清楚这个活动的意义。 本以为重组后可以放松，却发现“该忙碌的人无论到了哪里都会忙碌”这句话真是至理名言。项目经理直接转为各个专业组的经理，同时参与筹划发布会，真是让我深刻体验到了项目经理与程序猿那人尽皆知旷日持久的撕逼的原因。协调各组的活动导致项目经理从本组的技术活动中抽离，当协调结束后却发现已经无法融入当前的进度中，到最后发现自己一直在忙碌却不知道自己在忙碌些什么，这种感觉真是十分奇特。到最后只能作为打杂的存在，不过却也很高兴，因为至少能用这种方式支持组里成员的工作。也许这些想法只是对分工制度理解不充分，但确实觉得自己做的太少了。幸好组里有强有力的执行组长和导演，以及才思敏捷的编剧和专业的演员，推动拍摄进度不断前进。 而且筹备这种事还真是让人头疼啊。。。第一次做项目经理做这种管理性的工作，感觉好无奈，不过确实挺有收获的，以后遇到这种项目也不会只选技术工作了。 鉴于这是最后一天晚上了，就想谈谈这几天的感受。通过这几天的工作，尤其是作为项目经理的工作，让我初步接触了管理工作，并感受到了这种工作背后的魅力。 技术支持总是得在素材采集之后，所以熬夜剪辑似乎是不可避免的命运，不过和队友一起工作的感觉还是很让人期待和激动的。希望今天和明天可以剪出令自己满意的作品。给自己和队友一个满意的答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天感想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:28pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间过的真快，第三天的xlp就要结束了。
+今天明白了许多东西。首先是加入制宪组之后感受到头脑风暴，印象最深刻的就是周毅庄同学想把宪章做成一个制作项目的模式。也就是说，任何一个人，如果想要完成一个项目，就可以按照我们宪章的方式，找资源，找帮手，开会，做记录，一点一点发展，最后的完成。这种想法是我们所有人都没有想过的，但是可惜他并没有很好的具体措施，没有办法和brainstorm或者罗伯特议事规则这种已经存在的方式区分开，加之我们没有足够多的时间了，所以我们只好暂时放弃他的想法。
+还有就是对做项目，具体的讲就是我们这次做宪章又一个新的认识。在制作宪章讨论的过程中，我们有想顾老师反映过时间的紧迫，我们每一方面都存在争议，许多方面想不出来好的解决方法，感叹时间太过紧凑，没有办法交出一个好的成果。但是顾老师向我们细细描述了做项目的本来含义。他引用美国宪法的例子，表示美国宪法修订完的同时就多出来了十条修正案，这说明在实际工作中，很多项目上交的成果是有着许许多多不完整的地方的。我们需要依照剩余的时间对自己能力做出评估，然后计划好如何做完就行，关键是要做完。例如开会，我们要定下几点钟解决完哪一个议题，到点的时候，即使议题仍然很差，但我们也要按照他去完成之后的任务，不然什么都做不完。这点算是小小的纠正了一下我们这些完美主义者的毛病，挑剔有时是好的，有时是不好的。
+还有令人感到欣喜的就是我们的宪章组一点一点从完全杂乱没有中心的讨论经过半天时间走到了一起，能够已经一点一点的一起修改宪章了。这种经历对以后的任何合作项目都会有着极大的帮助。
+但是可怕的是，实物组希望我们将中文版在今天的11点发送给他们。希望我们能在合作中成功的完成这个任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP Day 3 日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP，Day3，日志
+如果要用几个词来概括今天的经历，那么其中一个词一定是“高效”。今天早上第五次Presentation结束后，全体成员融为一体，变成了一个大组。根据四项任务——宪章、微电影、实物制作、网页制作，每人选择自己最擅长的一组加入。果不出我所料，因为每个人对选择领域的了解十分充分，所以我们都非常清楚讨论的方向和内容，很快讨论就上了正轨。之后在分配任务分别完成一部分宪章的过程中，大家也都表现出了非常高的效率。还有一个词，我想是“分歧”。正是因为每个人对自己的观点过于固执，导致有的时候讨论的效果很差，往往吵得不可开交，但实际上却是每个人都在大声喊叫出自己的观点，而并没有一个真正“讨论”的过程。因此，我们的制宪过程受到了不小的阻碍和困难，现在在写这篇日志的时候我们组的工作进度也才完成了1/5不到，这意味着恐怕今晚又是一个不眠之夜。
+其次我特别想为顾学雍老师打抱不平。KOO老师根本没有学长所描述的那么可怕，反而给人一种经验丰富的“长者”的感觉，不仅是经验丰富，而且思想极其新潮，在给我们举例子的时候甚至丝毫不介意使用shit这样的词，我非常喜欢这样的老师。今天、乃至这个月最大的收获，也正来自顾学雍老师。他的三个观点，现在还清晰的浮现在我的脑中（fart，要是我现在就忘了，那这脑子真是白长了），第一个观点，没有绝对的完美，一切评判标准都是基于时空的，这个时空的看似“完美”的情况必然不适用于下一个时空。这让我恍然大悟，做事情认真是好的，但是不要吹毛求疵的追求完美，因为根本就不存在绝对的完美。只有时时刻刻都保持耐心，在每一个时间点都不断对已有的成果进行进一步的修正，那就能达到更适用于这个时空的更好的状态。第二，顾老师最希望我们在XLP的过程中学会怎样开会，学会怎样讨论。多次罗伯特议事规则和头脑风暴的讨论让我不仅脑洞大开，而且慢慢感受到了如何在一场讨论中合适的表达出自己的观点，甚至通过自己的发言引导讨论的方向。第三，我明白了信息数据化的极大重要性，越来越感觉git是一个好用的工具。希望以后能进一步发掘git的在我工作学习中的潜力。
+最后，不得不吐槽中午让我跳的那个奇葩的舞，不过最后好在以唱歌收尾了。好久没唱歌了，还是觉得唱歌更有意思。Ye-ha！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:31pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">李强 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天 李凯文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天是XLP的第三天，在昨天第一次回到宿舍后，我终于在床上睡了一次比较安稳的觉，然而，代价也是巨大的：在第一次醒来看了看是在六点半后，昏昏沉沉的关闭了闹钟，准备等到六点五十时的闹钟响了之后再起来。可是，等到第二次醒来的时候，揉了惺忪的睡眼，看了看手机的时间，吃了一惊，竟然八点九分了！我飞身跳出被子，从床上滑下来，穿上衣服，带上东西便冲出宿舍，来到一楼叫同组的同学，敲了一会儿门后，没有人应声，我只好自己赶紧下楼，骑车，奔向基础工业训练中心。
+来到中心以后，展示已经开始了。在顾老师的示意下，我羞愧地回到座位，开始听小组昨天工作的进度展示。
+在展示后，我们又一次重新分组，四合一，我来到了微电影的制作组，在比较有序的会议，在这次会议中，我进入了编剧的行列，负责编写第三部分的剧本。这一部分是在创建的平台上完成一个创意的孵化过程。在生活中的不便使主人公萌生了一个新的创意之后，主人公开始了尝试，然而一次次的失败使主人公无比的气馁，这时，他看到了创客宪章，看到了宪章的理念，决定试一试，于是在创客平台上发布了这一消息，没想到的是，下面有许多有相同想法的人的评论。于是，这一帮创客们通力合作，终于做成了声纹识别系统，在之后进行了新闻发布会，对产品进行了介绍，而后为竞标拍卖以及拍卖后的合同签字仪式，在签字之后以一种合适的方式对创客宪章的宗旨进行了说明。（具体情节有保密要求保密）
+下午，我们开始了微电影的拍摄过程。可是，清华学堂关门，图书馆闭馆，让我们的计划一次次落空，最后终于找到了航院的会议室，在这个会议室中我们完成了许多的片段，当然也有更多的“花絮”。
+在拍完之后，已经七点多了，匆匆吃过饭，又开始了忙碌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:32pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">李凯文 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP Day 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天的XLP在混乱中开始。首先是顾老师的迟到以及主持人推迟到8:14才开始展示，直到评分规则与实际评分的矛盾，以及对XLP活动意义的质疑。在和顾老师吵了很久的架以后，了解到顾老师理解的XLP本身是希望大家在四天里面学习如何开会（与他人交流）、如何使用分布式管理工具git管理项目，使每一次项目流下证据，以及如何处理与他人的冲突、矛盾，而学习使用git最好的方法，也是git最适合的功能就是编写宪章，所以小组的任务就是对宪章的编写。在头两天的宪章编写过程中，我却发现各个小组宪章的大部分内容完全没有新意，和社会中已有的各类创客空间、创业孵化器的章程没有新鲜的部分，而且还不如那些已有的资源完善简洁，而顾老师以及邀请的讲者对我们的介绍更多的时教我们如何去写宪章（包括用git管理，包括如何用四力去完善宪章），但是没有教我们如何去创新宪章，因此对这次活动比较失望。 后来新分成四个主题小组之后，宪章组对已有创客空间的线下空间进行了完善，也对线上平台的网站和数据库做出了规范。从四个组由于各自已有宪章的冲突产生的各种原则性争吵，到最后大家一起碰撞产生新想法，一起努力去消除各种冲突和矛盾，也学习到了如何在高压力的环境下交流，沟通。 第三天的活动和前两天完全不同，前两天还是多任务下的时间管理，到了第三天变成了单一任务，但是任务要求更多也更细致。大家往往针对一个特定的词，一个特定的功能有着不同的看法，但是经过讨论之后往往会发现宪章更多的不完善之处。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yipeng Chen </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:36pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the last of the last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 今天，是按规定要求的三篇的最后一篇了。不知不觉中，我们的课程就这么到了最后的最后，还有不到20小时就到了最后的结束时分。那个曾经是我第一天来的时候，最最希望到达的时候。突然之间，时间飞快的拉着我回到了快要上课的前一会。现在想想，好像是很可怕的时候。那时候，听说这门课是“可怕混乱”，又完全不知道git是什么东西，又对那种全英文的网站有着莫名的不熟悉，不习惯。真的难以想象，当时的我内心是有多后悔选了这门课。
+       用XY的搞笑话来说，我就是一个只想跳进深水区却误打误撞进了泥坑的人。（偷笑一下。）现在，虽然对后面的东西，还是有种不确定的不安全感，但是，已经完全不会怕。因为如果，我是一个会选择放弃的人，我就不会坚持到现在。
+       今天的空间里头，发生的事情让我意识到自己一个的想法有时候有可能多简单。就拿市场的发生的好多事来说，我惊喜于我们大家一起抵制市场恶意拍卖的活动，虽然有对记分组的一些处理特殊问题方式有一些些的不满意，难免担心起自己的得分。但是我想，这门课的意义不在于刷分，而是在于，我们能够有从这个活动中学到的东西。学到自己在很大的压力下挑战自己，不退缩，不放弃。虽然有时候口上会抱怨，会吐槽，但是我觉得在这门课中，认识这么多人，学会了很多很多的技能，也明白了多多少少的交易与法律中的一些，你无法要求他完全合理的现实存在。
+       这一门课，“可怕的混乱”，haha。说不定，还是可怕混乱，但是其实看待问题，完全取决于你的态度，你的想法。如果你不曾害怕，就不曾会退缩。我也讲不清，到底是为了什么一次又一次在忙碌中，在我的同学都各种回家秀优越玩的很舒服的时候，我这么一次又一次的和大家很拼的留到最后完成任务。
+      宪章，是我们这四天的中心活动，然而，我觉得这一切的模式一旦形成，我们就可以套用到其他很多的任务中，可以学到很多很多。我觉得，学习真的是一件无止境的事情。不论是时间是还是范围上，我们都需要无止境的学习。
+       The last of the last,也许我也不知道最后的最后会是怎么样。但我相信，在我们大家一起共同努力下，我们的数字化发布会一定会获得我们想要的结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:45pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shirleyl j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖昌明XLP第三日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖昌明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:45pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天
+  今天是XLP的第三天，上午我们汇报了昨天的工作状况，从宪章改本到网页制作，一一用ppt作了介绍。接下来我们各个组进行了重排，每个人都加入微电影组、宪章组、宪章实物组或网页组。我权衡了很久，最终决定加入微电影组，主要是我之前刚刚拍过情系母校的宣传片，所以我决定来拍拍电影。
+  首先我被分配为打杂，负责摄影、道具等一系列后勤工作，首先我被要求用手机记录开会过程，于是我像苍蝇一样绕着我们的讨论队伍不断绕圈，记录大家的一言一行。接下来大家讨论出剧本的大概，于是剧本被大致分为三段，第一段讲男主人公的产品被签约的现场，接下门老板问老陈，你是如何做到今天的成功的？记忆回到过去，剧情来到了第二段。男主人公来到了进行XLP的时候，他们开始讨论，进行各种活动，最后形成了一个有关规范创客空间的开源有关的宪章，他包含着有关开源的许多协定。接下来进入第三部分，多年后的一天，男主人公回家，由于手里东西多，一直打不开门，于是他决定做一个声纹识别的技术，但他发现很难。于是他想到了创客联盟，他发动创客联盟一起开源做了这套系统，互联网进入了一个新时代。最后老陈说出了我们的宣言。
+  下午，我们开始了微电影的拍摄。但我首先回到紫荆宿舍区拿到了DV机，下午拍了几段后，发现数据线没有了，于是只好用手机代替。为了提高像素，我们租了超级蛮贵的相机，一小时九十元。我们去了很多地方，一直拍到了天黑，晚上，我们还要继续剪视频。任务还艰巨着呢。
+  这是XLP的最后一夜，注定还有许多不平凡的事，我需要继续努力，完成任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlp 日志第三天 顾绍弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:46pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾绍弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xlp 日志第三天
+今天,小组进行了最终合并.这真是一个很棒的想法,因为这,我们的所有成果都可以作为最终成果了.不必在同之前那样并组后一切归零.今天的工作来说,我越发认为罗伯特议事规则之价值.刚刚开始时,会议进行的有些混乱,后期一切渐渐归于正常.会议的秩序决定了这一点.另外,我也见识到了组员们的强大之处,每个人都可以提出那么多想法,每个人都有自己独特的思想.这是很棒的.
+今天的工作进行的非常努力,我们也因此实现了很多事情.创客空间本身变得越发清晰,其功能的实现渐渐可以见到.我可以想像它建成之后可以发挥的巨大功能.创客们在一起共享资源,努力地实现自己的项目,为社会贡献力量.
+而这一切的实现方式也可以见到了,全体同学努力拼搏奋斗,每个人为宪章的发展提出自己的idea.一切也就变得越发完备,具体.我们的宪章也便越发趋于完美.
+另一方面,我们也接近了现实世界.我们的现实生活中,我们这几天的工作其实也就是建立在一个宪章之上.因此,我们完全可以用更加贴近生活的方式来工作.从现实生活中进行分析终结.
+至于说我们这段时间的生活,也有些显得丰富多彩了,中午的间操显得很有趣味,那歌曲也是十分动听.
+今天,我从这里也学到了一些东西.发现李强是一个很有想法的人,他能够很好的对整个系统控制.他的领导力真的很棒.尤其是这件事上:为了提高我们的小组效率,他与实物组进行联合,请他们人为的加了一个时间约束.这有利于提高我们的工作效率.同样的,我也应该进行努力提高自己的管理能力.!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天XLP日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天XLP日记 因为昨天工作的时间太晚，在3点的时候我才回到宿舍睡觉，所以很不幸的睡过了头，直到8点学姐大电话来我才睡醒。匆匆忙忙赶到中心，正好赶上了presentation。看着大家展示前一天的成果，觉得大家比第一天进步了很多。我也觉得自己在这几天接触到了很多新的事物，眼界达到了新的高度，能够感受到数字化社会与平台带给我们的影响，看到时代的发展趋势。 上午的4并1 后，我被分到了宪章制作组。上午我们花费了近2个小时来讨论自己原来小组的亮点与宪章的大体框架，虽然有很大的思想出入，但是在成功使用了罗伯特议事规则后，我们充分表达了各自的思想，交流沟通也就更加高效。最开心的是，我作为会议的主此人，很好的执行了罗伯特的会议精神，感觉萌萌的。 中午，跳操环节，动感的音乐，劲爆的视频，美丽的歌声。卢晟浩的舞蹈真的是不忍直视，而李强的歌声就特别的好听。手动点赞32个。 后来，我们分开撰写开会时候已经分好的章节。我认领了第一章——总则。总则其实在我看来，就是整个宪章的纲要与总体精神。在参考了相关的宪章总则与各个小组的宪章精神，我做出了一定的修改，并且加入了自己的思想。基于平等与分享的观念建立我们的宪法与创客空间的规则，我对只有区区一两百字的总则做了反复的修改，目测大约不下6次，感觉也是蛮拼的。不过收获很大，得到了队友的认可，感受到了团队的力量。 晚上，大家一直在努力的讨论宪章的细节，和谐的团队氛围让我觉得特别开心，现在马上就要继续开始讨论宪章了，宁静的夜晚又会有我们的翻译中文成英文版身影，加油！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:47pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dys14 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李腾飞XLP第三日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李腾飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:48pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限挑战第三天
+第三天，感觉又变好了许多。小组的汇报不错，宪章英文版也发布了。接下来进行了分组，我去了自己最感兴趣的微电影组，因为不会表演也不会剪辑（准确地说还在学），因此被分去写剧本。小组先进行了一次会议，确定了微电影的主题风格及主要应包含的内容。在此之后，我们又将会议纪要写出，各成员签字，交了上去。
+由于宪章组迟迟不能定下有关事宜，因此我们的活动也受到了很大的限制。当宪章组先确定了宪章中几项最基本的内容以及核心精神之后，我们立即就构思里一个大体的剧本：即一位创客通过我们的平台找到志同道合的朋友，在一起完成一个任务。我们最终确定这项任务为声纹识别系统的设计，并给它了一个合理的灵感来源。我们决定采取倒叙结构，并将整部剧分为三部分：创客们完成任务，即将分别；一份宪章将主角思绪带到XLP的时候；主角继续回忆创客空间帮他集结其他人，共同完成任务的经历。最后会将镜头返回第一幕。小组分工时我提出承担了第一部分的创作，第二、三部分分别由两个、三个组员来完成。由于一个人的效率显然是高于多个人的，我不需要和任何人商量，因此我很快地完成了任务，并去联系其他组，将剧本连接起来。由于我们极高的效率，中午之前就完成了大部分的工作，于是中午就美美地吃了一顿饭。
+下午进行了后继的拍摄，主演和群众演员都十分地卖力，拍得十分成功，并在拍的过程中创生了好多新点子，把剧本改进了不少。由于拍得过晚，食堂没有饭吃了，于是又去了清青快餐一次，真是爽啊。
+晚上继续拍电影，嗯，就这样吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天卢晟昊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢晟昊</t>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:53p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天              卢晟昊
+       今天 是XLP第三天，  一直工作到晚上三点睡下，早上五点半起床，但是却丝毫没有感觉到困。吃过早饭，顶着凛冽的寒风，骑着车子来到机电创新实验室，因为担心经济的变故，总是时不时地看一下teambition的分享墙和收件箱，今天举行4并1小组的重组，分为宪章组、网页组、实物组、微电影组、筹备组，因为这次XLP的核心主题是宪章，于是我加入了宪章组。经过头脑风暴和罗伯特议事规则混合的会议，我们制定出了宪章的大体框架，会议结束后，时间已经到了中午。这时，teambition发了一条信息，诚信公司招募员工，每人工资20，我立即抢到一个名额，并且叫上李强，李强讨价还价抬到了30，一起倒掉垃圾。中午吃完饭后，全体同学都坑我，让我学大屏幕跳舞，我瞬间感觉无比地逗比、无比地无奈。我几乎不会跳，于是应付了一下就下去了。李强也不会跳，于是李强提出，用唱歌来弥补。跳舞过后，我去市场部又领到了30，于是今天挣得60XLP币。下午本来想好好地写一下宪章的代码，结果马晓健找到我，问我是不是钱班的班长，我回答是的，并问他找我有什么事情，马晓健说明天下午举行展示需要一个效果比较好的教室，问我航院有没有,我想到了N412，于是我给艾导（钱班的导员）打了一个电话，询问N412如何借，知道方法后，我骑上车子，飞奔到蒙民伟科技楼，登记在案后，开出一张凭据，又飞奔回机电实验室。今天的git分基本没有了，下午宪章组在进行讨论时，我正在蒙民伟科技楼登记借教室，然后，然后就木有然后了。晚上吃过之后，继续和小组成员一起改宪章。晚上陷入了集体慢慢改宪法的漩涡之中。感觉晚上全组的工作效率略有降低。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xlp第三天——进一步成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 8:56pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天我参加了宪章实物组，并参加宪章实物的设计。确实我感觉一开始参加之后有一些游离，毕竟之前主要是技术性的活，现在变为创造性的美学设计，有一些感觉不太适应。但之后开始大力的贡献我的创意还是比较开心的。这些天马行空的随意想象还是比较愉快的。但是由于还是有时候感到想象力不足而有些呆板，我想这正是我急需改进的地方。
+还有一些比较深入的感受，第一就是不能依赖别人，只有自己的能力才是真正的本事。在宪章实物组的制作中，我确实感到有些由于对于一些软件的操作不熟练，比如说是Autocad和PS这些在设计中非常需要的软件。我真的有感觉落后于时代的感受。可能是由于前面十几年由于对于网络的偏见导致现在没有深刻的意识到数字化时代的重要性。能够熟练的利用网络时代的优势，这是我非常渴望的状态。到了寒假，我想关于一些比如视频剪辑、网页构建、GIT的用法要多多熟练。
+还有一点我感觉到了今天确实做事没有什么激情与动力。第一天是争着要任务，到了今天确实有些消极怠工，不过任务都完成了。大概是到了今天由于没太休息够的原因。有些抱歉。主要原因其实还是操作不熟练，有些时候对自己有很大不满。
+但今天还是有件特别高兴的事是做了一个比较漂亮的PPT，自己感觉还是比较炫酷的。于是还是比较自信的承担了明天的总PPT制作工作。
+还有一件比较影响心情的事是电脑在下载设计LOGO的软件是中毒了，电脑反复无故自动重启，还是非常不爽的，想想没有流畅的电脑工作，这应该是我非常不开心的比较重要的原因了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:00pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李奇钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过一夜的视频剪辑和特效制作，Team D完成了微电影的总体制作，整个电影融入了开源、区块化、创客等在前两天新学到的概念和元素。
+      通过展示的内容，我们发现各个team都为这次汇报做出了很大的努力，从XLP精神出发，每个参与者都在工作效率上得到了提高。
+      经过最后一次小组合并，先前所有的资源都在短时间内通过会议和讨论的形式得到了整合，我因为前期一直负责剧本和视频拍摄所以加入了微电影组。在brainstorm的过程中大家冷静地分析各个小组方案的利弊，权衡了主题、情节和可操作性，最终采取了融合和删改的方式确定了新的剧本的思路。
+      在明确的分工之后，四名编剧开始各自的创造，由两人完成各个部分内容的协调和衔接。确定细节，选择演员，即刻开拍。
+      作为导演，整个下午一直在跟进小组拍摄的脚步，从演员的动作、场景的切换、角度的选择都给出了我自己的建议和看法，中途友情出演路人甲，整个拍摄的活动其实一直在一种自由、欢乐、平等的氛围中进行，虽然四处取景，一直忙到晚上7点，但参与的所有人都从中感受到了创造的乐趣。
+      晚上的主要任务是到XLP学习现场拍摄，同时开始后期剪辑和加工，准备明天的彩排。今天意外的彩蛋是顾老师给所有任务方同学近三天的表现都给出了充分的肯定，同时也促进我们思考在这个数字化时代青年人们为何仍然远离数字化的生活。
+      正如小组某同学所说，越到后来工作越得心应手。换言之，大家已经逐渐建立了数字化的意识，并且展现出不凡的学习能力。从不知所措，到游刃有余，除了从容面对一个又一个曾经令自己望而却步的deadline，更重要的是每个人以在团队中体验了数字化出版的完整过程链。
+      建立宪章意识，认识数字时代，很感谢XLP方法论让我学到这些。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天：冲突、融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Liyan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:04pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突
+项目经理
+我发现我一直理解错了"项目经理"的概念，和"组长"是不一样的。 
+昨天我们的项目经理告诉我们toyhouse和组内互评的ddl都是23:00（然后我们20:00开会开到22:00），而且今天早上的展示根本没有放入网页、宪章实物的部分（也怪我没有提醒他截图放进去）。作为项目经理本来更应该掌控这个项目，可是他连时间点和任务要求都从来不注意，而且今天也没有在teambition发任务（占2分）。最终我们toyhouse的2分没有了，组内互评扣掉了7分（和计分员协商的结果）。当ability和ambition不对等的时候，结果其实是很可怕的。我不愿意也不会就这件事过多责怪他了，毕竟他心眼不错，自己也交迟了。
+第一次上法院
+昨天和今天早上顾老师都迟到了，于是我和陈逸鹏上法院起诉了顾老师和关京晶（挑战方政府）。最后达成了庭外和解，老师公开道歉并买了四箱饮料。我们四人和法院各留下了一份文件。 
+在这个过程中老师希望我们理解信息流是如何产生的，这样一个复杂的系统是怎样运行起来的。
+争吵
+我本来以为老师会对我们的展示给出一些批评意见，但他还是说“非常好”“很好”。做完展示之后，主持人宣布开始融合，我和陈逸鹏去法院起诉，遇到了顾老师，我们向他表达了对这个课程的不理解。这门课的意义在哪里？目的是什么？我们感觉自己没有学到什么东西。我甚至说觉得自己正在制造"学术垃圾"。顾老师和我们说了很久，我终于理解了，原来我们正在做的是meta-hacking，我们正在自己规范自己，在hacking的过程中写hacking的宪章。这是一个多么吸引人的概念！同时我一直觉得自己一个人做事情是最方便的，而且大多数时候我都能做好，所以我就一直一个人做着，甚至变得越来越孤僻。老师说，我们不能再以高中的方式学习。我们利用git进行了一次群体共同工作学习的活动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨学科集成设计挑战第三天日志
+力4  艾尼亚尔   网站组   2015年1月28日星期三  冷，晴。
+今天是跨学科集成设计挑战训练的第三天。今天是三天来我做事最有条理的一天。今天早晨我们进行了全组合并，所有任务方成员被编成了一个组。这样做的结果是，任务方划分成了四个分支，分管不同的技术领域，从而实现了任务分工的高度分化。经过了一天的任务，当我回忆起今天所做的事情时，我突然有了一个从未有过的想法。
+回首两天前我初入跨学科集成设计挑战课程的情景，当时我并不很清楚我们即将做什么。即使我们五人组做着四人组规模的任务量，我那一天却过得非常劳累。原因是，我既在关心PPT的制作，又包揽了所有会议记录与二次加工，甚至整理成文档上传的全部任务。我还忙于设计LOGO，参加LOGO解说，在发表各种各样的看法中疲于奔命。然而，我那一天的效率是非常低的。我可能完成了我们小组约五分之一的工作量，也就是说，处于平均水平。
+第二天情况有了明显变化。我被分派给了制作网站与会议记录的任务，这一天虽然我的工作密度增加了，但是我主观感觉我的负担却没有增加。我那一天满满当当地利用了时间，以比前一天高得多的效率完成了任务。但我这一天沉浸于进步的愉快中，却没有发觉效率提高的事实。
+直到今天，我的情况发生了巨大变化。我的分工更明确了。我专门负责整个任务方的网站制作任务。网站制作本应更繁重才对。然而我们网站制作组今天的工作效率非常高。大家一般都能在时间期限之前完成任务。我清楚地觉察了效率提高的巨大变化。
+我猜想这可能与人员分组集成后科学分划任务分工有关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyar Aligham </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:04pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨昊光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:05pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最忙的一天
+在经过最后一次合组后，最终任务近在眼前，然而这也是四天中最具挑战性的一天：前所未有的技术性问题：宪章实物版的制作，对于我们组来说绝非易事。我们组中很多同学在今天才重拾已经生疏的AutoCAD技术，跨越AutoCAD、Solidworks、Photoshop、以及激光刻印机的驱动程序平台搞设计，经历了很艰难的一段时光。
+事件回顾，上午：设计总Logo
+我们在宪章实物设计与制作组，自然包揽了所有建模和平面设计的技术活。上午我们面临的首个艰巨任务，就是重新构造全体的总Logo。我们在宪章讨论小组得出总纲领的第一时间得到了宪章的主题，并且据此设计了不下十个Logo方案，包括我对小组贡献的两个方案在内。最终，黄伟智设计的“创客龙”标志在我们修改完善后获得了大家的一致通过。
+下午：设计Logo和宪章实物的框架
+留给Logo设计的时间只有两个小时，在我拟出草图后，组长负责了主要的改善工作。同时，网购组的两位同学风尘仆仆地出去和网店卖方沟通明天的纪念奖杯事宜。紧接着，设计出的Logo马上发给了宪章组、网页组和视频组，随后我们转入了紧张而困难的实物设计流程
+下午&amp;晚上：宪章实物设计
+大家细化分工，每人负责一个特定的内容，依据“会电脑的搞总设计和合并图层，不会电脑的用手绘”的宗旨，大家奋战了六个小时，克服重重困难力保图像质量，跨越多个平台排版，终于使宪章实物浮出水面。同时，我也开始了激光刻印机的试机，调试了功率，为第二天的最终打印奠定了坚实的基础。
+现在：故事还在继续
+现在宪章组的成果尚未推送，我们的制作转移到易拉宝等琐碎边设上。我们将在宪章组的成果完成的第一时间更新宪章实物的制作进程，并且帮忙复核宪章的英文版翻译。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动日志 第三天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:07pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   活动第三天。心情没有想象中激动，大概是困了吧。今天是活动的一大转折点，全部学生合为一组，共同完成任务。本以为这样会变得更轻松一些，本以为选择了相对更轻松的宪章实物组，没想到，居然有那么多的任务和困难。首先是宪章实物任务，是全新的，与前两天的任务几乎脱离。其次，我们组的任务，还建立在宪章组完成宪章的基础之上，需要沟通和协调。再次，我们承担了logo设计和书籍版面设计的重任，而组内没有人有相关经验。最后，我慢慢发现完成这些任务需要有过硬的技术能力，必须掌握autocad和photoshop这两大软件，而本组大多数人根本没有安装它们，更别说使用了。
+        大多数时间，我在不断学习各种图片搜集和处理技能，一边学一边做的感觉还真是难受啊。好在，组长没有施加过大的压力，要求我们尽力而为，而且今天的时间相对宽裕，所以不至于喘不上气来。面对未知的恐惧，面对陌生软件的恐惧。
+        今天也经常与几位同学合作设计方面的问题。其中，关于Logo的设计，仅仅颜色搭配这一块就花费了好多时间，一直没有取得共识，因为个人喜好问题浪费了不少时间，看来，有些时候人多不一定力量大啊。  
+       另外，顾老师朝着我们原本以为的样子渐行渐远了。开课前被称为混乱邪恶的顾老师，开课后的存在感较低，而且从没有骂人发火，今天因为被告，买了饮料，真是雪中送炭。当然，也要感谢告发老师的那位同学。
+        明天就是最后一天了，果然越接近结束时间过得越快啊，今天已经可以毫无怨言地工作到天黑了。提前预祝明天活动顺利，以及，寒假愉快，哦，还有回家之前的30号愉快！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP day3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天最大的变化，当然是又一次合并分组......
+大家按自己的分工重组在一起工作，整体上能够更有效地分工及交流。
+但是，各个不同的工作其实也是有彼此联系的，这样划分是我们缺少各个不同工作之间交流了解和统一。整个宪章是一个整体，宪章与实物和微电影和网页，他们应该是彼此反映彼此帮助深化形成一个整体，表达共同的理念，在网页 微电影 实物中应该以各种各样的形式更好地体现宪章的宗旨，而宪章也应该根据网页等设计的实际情况形成更细化的操作规范，从而摆脱理想化。总之，这几者都应该是彼此联系统一的，是一个可划分不可独立的有机整体。
+加入宪章实物组，这里，多的就是一群技术宅，可惜，我不是。我自己把自己深深鄙视了。这次的展示等给我全新的感受，在制作ppt的过程中，我们组不是想着找一个非常精美的模板，按照规范的层次，丰富的内容来尽力扬长避短。我们只是简简单单汇报了自己做了什么，成果什么，没有修饰，却让人感觉是真正有内涵的，有技术含量的，能够以创意吸引人眼球的。
+举个例子，当时我们做平面设计时，就是先独自设计然后讨论交流改善，每个人都设计出至少一个logo，都有着非常棒的创意和寓意，我看到时的感受是每个都可以拿出来成为一个很赞的logo，但是我们还是彼此交流融合亮点，提出不足并商量改善。感觉很不错。
+今天收获很大吧，宪章实物制作的任务内容比较多，并且技术含量比较高，能够提升自己。
+今天的午间操真的很丰富加逗比，很欢乐。
+明天要开发布会，我们没有再去想过多的得分或是完成任务，而是尽力做好工作，贡献创意，让明天展示精彩一点，更精彩一点。
+今晚，明天，加油！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:08pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015跨学科设计挑战-XLP-第三天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天是跨学科集成设计挑战的第三天。想到明天就是最后一天，我未免有一点小激动，也有一点不舍。早上在路上骑车时，我就不断地回忆起前两天的点点滴滴。第一天的迷惘、挫折，第二天的改善、进步都历历在目。不知不觉就来到了机电创新中心，开始了今天的挑战。
+今天，是所有小组合并为一个大组的一天。早上四个小组各自进行展示后，我们组建了一个大组，并初步分工为四个不同的小分组以制作四样不同成果：宪章（中英对照）、微电影、网页、宪章实物。最终，我选择了加入宪章实物组进行创作。
+首先，我们采用了头脑风暴的方式各自设计本届XLP课程的Logo，经过小组内投票，我设计的方案得到了大家一致认可，被选定为本次活动的Logo。这或许是我在今天甚至于在整个XLP课程学习的过程中取得的最大的成果。于是，一种巨大的成就感油然而生，尤其是与前两天的磕磕碰碰，迷惘无知形成鲜明的对比。
+下午，我和马晓健、杨奇一起完成了Logo的电子版设计、上色并上传到了大组的文件夹中。或许是因为上午取得了这样的优秀的成果，我有点洋洋自得，懒于工作，工作效率严重降低。后来，在小组长的指责下，我发现了这个问题的不良影响，于是又重新积极地参与小组工作。先是与贺琪、吴军一起讨论了宪章实物封面的设计，后确定设计方案后辅助马晓健制作宪章封面的电子版。
+晚上，我和杨奇一起制作邀请函，为明天的成果发布会做准备。尽管很忙碌，尽管很疲惫，但是看着我们3天以来所做的努力将要在明天变为真正的成果，我真心地感到开心，感到自豪！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄伟智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:09pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月28日 XLP第三天
+   今天进行了真正意义上的制宪会议。
+   上午并组分工后，我加入了宪章讨论组。首先我们进行了各队原宪章要点汇报，总结了各队的可取之处。随后我们由于中心问题不明，就陷入一片混乱，各方都坚持原来的立场，由此产生了宪法的三种版本。经过罗伯特会议程序后，我们总算敲定一种版本，即撰写一部针对创客空间的宪章。然而，后面依然很不顺利，我们仍然没有搞明白我们究竟在做什么，甚至到后来讨论倒退回了要不要开源的议题。在达成以开源是即成事实的基础上，我们建立起了宪章基本框架。
+但转折发生在此时。顾老师了解到我们的困难后，为我们讲解了他的理念。尤其是他对美国宪法从编写至今仍在不断修订的历史的阐述，让我们明白了凡事没有一个准确的答案，一个问题的解答或一个任务的完成，应该是一个持续不断的过程。随着我们的能力上限提升，我们的解答也会不断改进。因此我认为，美国宪法的制定本身就体现着一种开源精神。即：宪法随着时间推进会产生许多漏洞，而之后的人们则最随着前人的轨迹，不断对这一宪法进行改进。而之后，我们意识到我们建立的应该是一种原宪章，它可以是不完美的，我们需要的是让大家不断地对它更新。这也让我们忽然明白，我们写宪章的本身就是一群创客在创造。
+随后，我们在这一原则的指引下，很快提出了一个可行的宪章框架并迅速分配了任务。但在合并每个人的工作后，我们就是否建立一个新的版本控制平台发生了严重分歧。我们发生了一场激烈的争吵，可以说是争的面红耳赤。最后我们统一了基本假设，将另一版本放入了故事版中，这样就顺利解决了分歧。之后我们又对宪章进行了修订并翻译。
+总之，今天的经历让我真正明白了此次活动的意义。一个字：值！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">郝育昆 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:10pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlp学习第三天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天的网页成果十分突出，展示的时候得到了大家的肯定，我觉得付出总是值得的。我们小组昨晚花大量时间进行的微电影的制作也在展示的过程中得到了大家传来的欢笑。
+今天小组进行了重新的组合，全体都并入到一个大组中去了。做网页成果比较突出的我也自然而然的进入了网页制作的小组中去。并且由于我之前一直担任项目的经理，所以我被选为了网页制作子项目的经理。然后我们小组繁忙的工作就开始了。
+我们首先进行了分工，网页制作并不是一个很容易进行分布式工作的活动，因此我们采用了一人主要负责制作网页，其他人负责收集素材的形式，确保每个人都进入到工作当中，没有人闲下来。但是我们的工作效率比较底下，并没有做出很好的成果出来。
+另外我还是发布会筹备组的人员，负责发布会时间流程的安排。结果分散了我大量的精力，两边都没有做好。
+下午的展示活动做完了之后，我发现我们网站制作的方向出现了很大的问题。所以我们要推倒重做，所以我向项目总经理黄馨仪提出了退出筹备组的请求。从此我开始进入了专心进入网站制作的工作中。
+我和宪章制作组的成员进行了详细的交谈，理解了他们所做的宪章的基本理念，并且我瞬间产生了网页制作新的思想，并且我及时的把我的想法传给了我的组员。
+我的组员非常同意我的想法，并且给出了许多新的建议。于是我们推倒重做，但是我们明白了我真正要做的是一个什么样的东西。所以目标明确，我们前进的脚步就会更加坚定。
+今天要熬夜了，最后一天拼上命把事情做好吧！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:11pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP马晓健_第三天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马晓健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:29pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天是最最有感觉的一天，可以说，今天我才真正感受到什么叫工作，什么叫合作集体工作的状态。从另一个角度来说，今天可以说是一路高歌。早上临时上阵进行ppt展示，力挽狂澜，帮小组拿到了展示的满分。接下来的分工中，我主动出击，跟几个原来的项目经理“瓜分”了微电影，宪章，宪章实物，网页制作的小组。各个小组可谓各有特色，网页组规模虽小确技术大神深不可测，微电影组在沉稳骞神的带领下有条不紊，文艺范儿浓浓。宪章组表现出了极高的思维型和逻辑性，会议唇枪舌剑，逻辑严谨细致，工作静声静气。但是在我看来，最适合我的，最有激情的莫过于我所在的宪章实物组了。说是宪章实物，其实我们的工作远不止所谓宪章实物那么简单。在这个CAD大神和PS大神齐出的小组里，我不得不说，我们今天变身为设计师，承担了整个活动的设计工作。从早上精彩绝伦的头脑风暴，到下午开始从未停息过的PS，CAD建模，我们“设计公司”的工作一刻也没有消停。大家的能力得到了极高的锻炼和提升。正如邬军同学说的，实物远比虚拟的宪章等文档难做的多得多得多。到现在为止，我们还没能停止所有的工作哩~
+    除此之外，我高兴地看到我对活动产生了一定的影响。在下午，展示筹备组感到迷茫无措时，我坚定我这“偏执狂：的性格，极力追求完美，极力鼓励大家积极参与，将大家对展示的热情完全的提升了一个档次。我们不仅做出了更为细致详细的安排，还使挑战方开始主动配合我们的工作。同时，我们也最终选取了更加高标准的场地进行最后的发布会。
+   努力！去改变这一切！想要改变一切，必须付出他人难以忍受的奋斗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法形容的成就感（第三天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自从开始这门课以来，这样在隔绝一切的环境下写点什么还是第一次。
+巨大的疲倦感啊。
+我以前参加此类活动都是干技术的，从来没有想过自己有一天会领导一个小组。也从来没有想过自己会在理解了某个组员的idea之后被打动到全力说服全组给他把自己的idea细化的时间，两次，我都是在理解了某个组员的idea之后死抓着不放，无论如何都要让他们有机会提出一个具体的方案，两次。第一个是在我们还在Team1的时候的，虽然我在Team1中努力推行了这个idea，但到了TeamA时期这一想法又被边缘化，此时已是TeamAleader的我也只能强打精神继续。又有组员有很好的idea，我让他暂时脱离直接编写专门develop这个idea，但是在我成为宪章组的leader之后，这一想法还是能够被组内制定的整体框架所接纳。那时候的失落感真的难以描述，虽然领导的人在增多，却没能把组员的好想法变为成果，认为自己没有履行好领导职责。我本身在一些问题上又表现得比较弱势，当我又一次由于自己的弱势把主持权移交身边的学长的时候，真的对自己产生了怀疑——这个只是靠之前在许多类似活动中干技术活，显得履历丰富经验老道，才唬住了全组并被推举为组长，实际上根本没有领袖气质的so-called ‘leader’，真的非常失落。好在学长学姐没有太苛责我不然真的要崩溃了。
+真正的转折在那两个曾经提出过idea的同学把他们已经日趋成熟的想法结合到一起的时候，这次他们真的得到了宪章组的一致认可。我太累了，这次我是最后一个理解的，而且我此时还堆着一堆行政工作难以投入宪章的具体编写，在git上的编写记录也估计会很难看，但是都无所谓了，一想到我勉强算是帮助孵化了两个很不错的idea，成就感就抹除了一切的疲倦和失落。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周大桐 （Dalton Chou）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:29pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天度过的紧张但是愉快，在早晨合并的时候，有一个对自己的能力和方向的评估。分组的第一次会议之后，豁然开朗，感觉自己对这次活动有了全新具体而且深刻的 理解。首先，多次的项目合并，小组的重新组合确实是一个很挑战性的东西；一次次的组员的认同和重新分工；一次次的任务的理解和执行——在这之中，压力之下，我们体味到的是自己的成长：高密度，新概念的知识和技能的大量掌握和支持的交流，完全是 一种需要适应的东西，我受益匪浅。
+第3天，我觉得一个首要的关键词是合作。有着明确的目标，我们有了自己的个人方向和任务，明确而具体。在有了可操作性的同时，自己也发现了个人和团队之间互补性的重要性——这是一个基础性的重要东西。大家各自做好自己的工作，合作在具体的，紧张的任务下才有这具体的动人力量。
+作为宪章实物版制作的一员，开始感觉到的完全是一种新奇，毕竟之前完全是故事版的东西。讨论出新奇的想法，全新的构图，看来真的前两天地位 讲座和各次顾老师的点评在我们的脑海留下了深刻的烙印——我开始理解真正的 XLP中得extreme和 challenge的具体的体现。我们会遇到技术，人力和时间安排等等的不顺，但是我们也逐步地从茫然、无所适从到主动的学习和合作以达到优势互补的目的。
+最后回顾奔波的一下午，自己和昊辰在寒风中步行很长距离；坐着地铁绕着大北京一大圈（自己的地铁卡都被刷爆了）。。。。在夜晚的灯光中回到学校，想到自己的小组一定会拿出很棒的产品，不禁加快了脚步，拂去了一身的疲惫。明天就是你最后一天了，在任务的历练下自己从一个有些不适应的入门者渐渐地对这门课有些恋恋不舍——或许哪个著名的流传图片应当改一改了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:31pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖飞宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天
+经历了两天的鏖战，我们的XLP进程，经历了第一天的开始，第二天的发展，从而进入了第三天的高潮阶段。今天，我们全体人员进行了重新分组，也就是每个人选择了一项自己或者喜欢或者擅长的项目来参与。宪章修改、宪章实物、微电影制作、网页制作、筹备委员会（组长们），五个小组，五项不同的分工。
+我呢，本天真地认为宪章实物制作是最轻松的，以为只要跑跑3D打印就可以了，其他时间便可以悠然自得地休息。而事实上，情况完全不同。事实证明，真实的，才是最难的。由于前一天晚上熬夜到四点半做PPT，整个上午，我都处于昏昏欲睡的状态。虽然貌似在做着事看着文献查着资料，其实什么都没有进入脑子。甚至一直到九点，我都没有能打开电脑。同学们做的presentation，我也毫无印象。
+十点钟开始，终于脑子清醒了一些。本来想偷偷懒，加入宪章实物组，没想到还要制作纪念物，于是又被分配到纪念物的挑选小组中。刚开始也还是较为轻松的，在淘宝上刷一刷，找货物、联系店家。后来愈发地发现淘宝的不靠谱，那些号称在北京的店家，一个个隐居在昌平、良乡甚至密云水库。还好我偶然发现了一个北京商家，看起来产业还比较大。于是，不知道QQ上多少次留言，不知道多少分钟的电话费，不知道多少怒吼与哀叹，终于商定了价格。午饭后，我和肖飞宇便出发去取货。
+东城区的路弯弯扭扭、复杂不堪，迷路了许久的我们，走了几公里，才终于找到地方。本来以为三个小时可以解决的事情，硬是拖到了五个小时，直到六点半，才带着饥饿与疲惫归来。
+一回来又有了新任务——多亏早年还拥有一点点PS技能，于是花了约莫一个小时，我制作了奖状模板。虽然自己还是不甚满意，但是还是感觉比较有成就感的。
+XLP将要结束了，三天的忙碌生活，给了我许多磨砺，也让我成长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:38pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周昊宸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天感想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天四个小组进行了最终的合并，我们参加课程的任务方终于汇成了一股力量。
+开始的展示里有我一个，不过与他人比较后总是觉得自己做的PPT过于简陋，展示也并不从容。然而，我觉得自己经过了练习能够非常流畅地说下来已经是一种进步；同时，我也看到了其他组的亮点。我发现他们的条理相较更为清晰，同时，他们所提炼出来的核心内容也更能展现其独特。
+组的合并后，场地中的同学们似乎处于一种无组织无纪律的状态，几个组长倒是及时地做出了反应，迅速地凑在了一起商讨接下来的工作。我本来不是B组组长，但是由于Git操作基本都是我完成的，所以在组里也算副组长，跑了去参加事务进行的讨论。由于另外四个组长认领任务速度非常之快，以至于最后觉得自己没有一技之长的我成为了项目总经理，当然我本人也的确很乐意，想要体验一下如何统筹规划一件事情，前所未有的自由、开放、合作的任务。
+然而事情远比我想象中的复杂。过高的开放度使得我觉得事情完全是一团乱麻，毫无头绪。不过，团队合作的迷人或许正在于此，几个组长凑在一起很快地就能组建起团队。我也在不断地重新认知自己的确切任务。我首先依据时间表中的内容设立了各项任务，并且设置了ddl。虽然依然晚了一些，但是项目的合并也慢慢地顺利进行了下去。
+我也学会了能够放心地把事情交给别人去做，而毫不插手。虽然此时的我依然没有清晰的思路。
+下午，我更多地与挑战方进行了各项交流。甚至依照马晓健同学的建议，取消了第二天的展示。我逐渐开始认识到自己所拥有的资源——自由。我可以自行决定自己要做的事情，修改流程，只要不合理，一切都可以协商。
+特别是与关老师和顾老师交流后，我越发觉得自己在做一些独特而有意义的事情。我们设立的法律和市场也都是在为我们建立起相应的意识，我作为项目总经理，做的其实也类似于挑战方的组建工作，要利用好我们所拥有的资源，自由地安排我们的事情，不过难度相对大大降低。
+我做了很多，协调了很多部门，逐步地下发任务，也更多地从他人的想法里获得要做事情的灵感与完成的步骤。每个人也都在自己的岗位做事，这样一个专注于一件事的团队，有着令人感到无比骄傲的感受。
+我相信，我们能够做到最好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:43pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLP第三天日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上为了视频剪辑又熬到了三点，早上七点起床精神不太好，但还是准时签了到。已经过去一半了，对于宪章、网页、微电影都参与了制作，掌握很多软件，似乎第三天会比前两天轻松。但最后两天一定要尽全力做到最好。
+      当然，第三天并没有那么轻松。一开始照旧完成进度展示，PPT、微电影、网页、宪章都在凌晨三四点陆陆续续完成，虽然有瑕疵但还是令人满意的。之后，小组又重组了，任务有了更明确的细化。思考再三，我决定加入之前从未尝试过的宪章实物制作组，挑战下自己。
+      分好组后，组内在组长领导领导下进行了更明确的分工，由于我的CAD和Solidworks技术不高，我被分在了平面设计组。平面设计是所有过程的基础，决定了我们的设计方向。
+      我们有三个任务，分别是LOGO，封面和页面设计。一开始我们头脑风暴在白板上设计LOGO。当时我思维突然非常活跃，先想到了创世魔方后抽象二维的拼图模块代表共享与共赢，之后在四个模块中分别设计图案，之后越想越活跃，分别设计出XLP、P2P、交互、山形方框、共享等图形，最后选择了最能代表创客时空的四个图形，组长检查后略作修改直接通过。这是对我思想的一种肯定。
+      下午我对封面排版进行了更好的优化，同时提出了线程式页面边框，在李强的修改下再次得到组长的肯定。之后交予杨昊光和马晓健进行建模。
+晚上由于任务基本完成，我参与了奖状的制作，通过各类资源的整合在Photoshop的帮助下完成了双面获奖证书的制作，在制作试验品。宪章实物组任务很重，每个人都或多或少地参与了每样实物的设计，每个人的思想都得到尊重，虽然有异议但实物设计都很好。
+      这三天，我已经参与了宪章、微电影、网页和宪章实物版的制作，每天都学了新的知识与技能，对一些知识概念也有了更深刻的理解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 28, 2015 at 9:58pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Woods </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1690,6 +2331,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1713,15 +2360,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1730,13 +2371,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,1313 +2730,1851 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
+    <col min="5" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>92</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>99</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
         <v>647</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>110</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>140</v>
       </c>
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>139</v>
       </c>
       <c r="B30" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>137</v>
       </c>
       <c r="B32" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>136</v>
       </c>
       <c r="B33" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
       <c r="B34" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>147</v>
       </c>
       <c r="B35" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="C41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="C42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
+        <v>647</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
-        <v>647</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E50" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E51" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E52" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E53" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E54" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E55" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D56" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E56" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D57" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E57" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D58" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E58" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D59" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E59" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D60" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E60" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D61" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E61" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D62" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E62" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E63" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E64" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E65" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E66" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A68" s="3" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E67" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>287</v>
+      <c r="C70" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D71" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E71" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+      <c r="B74" t="s">
+        <v>299</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>299</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B76" t="s">
-        <v>305</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C82" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>327</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>331</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>337</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>343</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>355</v>
+      </c>
+      <c r="B87" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>357</v>
+      </c>
+      <c r="B88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>362</v>
+      </c>
+      <c r="B89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>367</v>
+      </c>
+      <c r="B90" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>373</v>
+      </c>
+      <c r="B92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>377</v>
+      </c>
+      <c r="B93" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>382</v>
+      </c>
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>385</v>
+      </c>
+      <c r="B95" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>390</v>
+      </c>
+      <c r="B96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>393</v>
+      </c>
+      <c r="B97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>397</v>
+      </c>
+      <c r="B98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>402</v>
+      </c>
+      <c r="B99" t="s">
+        <v>317</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>406</v>
+      </c>
+      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>409</v>
+      </c>
+      <c r="B101" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>647</v>
+      </c>
+      <c r="B102" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>415</v>
+      </c>
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>420</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>425</v>
+      </c>
+      <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>429</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>318</v>
+      </c>
+      <c r="B107" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>436</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
